--- a/config/known_host.xlsx
+++ b/config/known_host.xlsx
@@ -4284,7 +4284,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
